--- a/data/2024Q4map.xlsx
+++ b/data/2024Q4map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05868F9-1317-674C-B030-8BE2399666B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B94B60-9124-0540-A6BA-FE00B8E720DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="3260" windowWidth="27640" windowHeight="16940" xr2:uid="{35F0181B-3A29-DE44-8E5E-64D19B6E1DBD}"/>
+    <workbookView xWindow="23560" yWindow="3100" windowWidth="27640" windowHeight="16940" xr2:uid="{35F0181B-3A29-DE44-8E5E-64D19B6E1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longtitude</t>
-  </si>
-  <si>
     <t>University of Innsbruck</t>
   </si>
   <si>
@@ -105,19 +96,34 @@
   </si>
   <si>
     <t>University Carlos III Madrid</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +486,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,19 +495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>48.135599999999997</v>
@@ -511,7 +518,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40.352699999999999</v>
@@ -522,7 +529,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>47.265000000000001</v>
@@ -533,7 +540,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>46.499000000000002</v>
@@ -544,7 +551,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>44.6402</v>
@@ -555,7 +562,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>40.850499999999997</v>
@@ -566,7 +573,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>41.462299999999999</v>
@@ -577,7 +584,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>51.2194</v>
@@ -588,7 +595,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>37.773400000000002</v>
@@ -599,7 +606,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>39.933399999999999</v>
@@ -610,7 +617,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>49.891100000000002</v>
@@ -621,7 +628,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>59.353099999999998</v>
@@ -632,7 +639,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>48.8369</v>
@@ -643,7 +650,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>60.4512</v>
@@ -654,7 +661,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>52.205399999999997</v>
@@ -665,7 +672,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>45.496200000000002</v>
@@ -676,7 +683,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>45.81</v>
@@ -687,7 +694,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>45.192399999999999</v>
@@ -698,7 +705,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>34.9084</v>
@@ -709,7 +716,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>40.308300000000003</v>
